--- a/England National League North/England National League North.xlsx
+++ b/England National League North/England National League North.xlsx
@@ -48184,7 +48184,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7528358</v>
+        <v>7528357</v>
       </c>
       <c r="C536" t="s">
         <v>28</v>
@@ -48196,13 +48196,13 @@
         <v>45269.5</v>
       </c>
       <c r="F536" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G536" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H536">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I536">
         <v>0</v>
@@ -48211,43 +48211,43 @@
         <v>61</v>
       </c>
       <c r="K536">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L536">
         <v>3.5</v>
       </c>
       <c r="M536">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N536">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O536">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P536">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q536">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R536">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S536">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T536">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U536">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V536">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W536">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="X536">
         <v>-1</v>
@@ -48256,16 +48256,16 @@
         <v>-1</v>
       </c>
       <c r="Z536">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA536">
         <v>-1</v>
       </c>
       <c r="AB536">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC536">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="537" spans="1:29">
@@ -48273,7 +48273,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7528357</v>
+        <v>7528358</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48285,13 +48285,13 @@
         <v>45269.5</v>
       </c>
       <c r="F537" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G537" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I537">
         <v>0</v>
@@ -48300,43 +48300,43 @@
         <v>61</v>
       </c>
       <c r="K537">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L537">
         <v>3.5</v>
       </c>
       <c r="M537">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N537">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O537">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P537">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q537">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R537">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S537">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T537">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U537">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V537">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W537">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48345,16 +48345,16 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA537">
         <v>-1</v>
       </c>
       <c r="AB537">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC537">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -52278,7 +52278,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6880804</v>
+        <v>6879658</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52290,13 +52290,13 @@
         <v>45290.5</v>
       </c>
       <c r="F582" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G582" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -52305,40 +52305,40 @@
         <v>59</v>
       </c>
       <c r="K582">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L582">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M582">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N582">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O582">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P582">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q582">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R582">
+        <v>1.95</v>
+      </c>
+      <c r="S582">
         <v>1.85</v>
-      </c>
-      <c r="S582">
-        <v>1.95</v>
       </c>
       <c r="T582">
         <v>2.5</v>
       </c>
       <c r="U582">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V582">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W582">
         <v>-1</v>
@@ -52347,19 +52347,19 @@
         <v>-1</v>
       </c>
       <c r="Y582">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z582">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA582">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB582">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC582">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52456,7 +52456,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>6880679</v>
+        <v>6880804</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52468,76 +52468,76 @@
         <v>45290.5</v>
       </c>
       <c r="F584" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G584" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J584" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K584">
+        <v>3.25</v>
+      </c>
+      <c r="L584">
+        <v>3.5</v>
+      </c>
+      <c r="M584">
+        <v>1.909</v>
+      </c>
+      <c r="N584">
+        <v>4.333</v>
+      </c>
+      <c r="O584">
+        <v>3.6</v>
+      </c>
+      <c r="P584">
+        <v>1.7</v>
+      </c>
+      <c r="Q584">
+        <v>0.75</v>
+      </c>
+      <c r="R584">
+        <v>1.85</v>
+      </c>
+      <c r="S584">
+        <v>1.95</v>
+      </c>
+      <c r="T584">
         <v>2.5</v>
       </c>
-      <c r="L584">
-        <v>3.4</v>
-      </c>
-      <c r="M584">
-        <v>2.4</v>
-      </c>
-      <c r="N584">
-        <v>3</v>
-      </c>
-      <c r="O584">
-        <v>3.75</v>
-      </c>
-      <c r="P584">
+      <c r="U584">
+        <v>1.85</v>
+      </c>
+      <c r="V584">
         <v>1.95</v>
       </c>
-      <c r="Q584">
-        <v>0.25</v>
-      </c>
-      <c r="R584">
-        <v>2.025</v>
-      </c>
-      <c r="S584">
-        <v>1.775</v>
-      </c>
-      <c r="T584">
-        <v>2.75</v>
-      </c>
-      <c r="U584">
-        <v>1.825</v>
-      </c>
-      <c r="V584">
-        <v>1.975</v>
-      </c>
       <c r="W584">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X584">
         <v>-1</v>
       </c>
       <c r="Y584">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z584">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA584">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB584">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC584">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52545,7 +52545,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>6879658</v>
+        <v>6880679</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52557,76 +52557,76 @@
         <v>45290.5</v>
       </c>
       <c r="F585" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G585" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J585" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K585">
+        <v>2.5</v>
+      </c>
+      <c r="L585">
+        <v>3.4</v>
+      </c>
+      <c r="M585">
+        <v>2.4</v>
+      </c>
+      <c r="N585">
+        <v>3</v>
+      </c>
+      <c r="O585">
         <v>3.75</v>
       </c>
-      <c r="L585">
-        <v>3.6</v>
-      </c>
-      <c r="M585">
-        <v>1.75</v>
-      </c>
-      <c r="N585">
-        <v>5.25</v>
-      </c>
-      <c r="O585">
-        <v>4</v>
-      </c>
       <c r="P585">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q585">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R585">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S585">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T585">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U585">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V585">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W585">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X585">
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z585">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA585">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB585">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC585">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="586" spans="1:29">
@@ -55304,7 +55304,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>7528359</v>
+        <v>7595707</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55316,76 +55316,76 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F616" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G616" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I616">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J616" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K616">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L616">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M616">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N616">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O616">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P616">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q616">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R616">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S616">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T616">
         <v>2.25</v>
       </c>
       <c r="U616">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V616">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W616">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X616">
         <v>-1</v>
       </c>
       <c r="Y616">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z616">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA616">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB616">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC616">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="617" spans="1:29">
@@ -55393,7 +55393,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>7595707</v>
+        <v>7528359</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55405,76 +55405,76 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F617" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G617" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H617">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J617" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K617">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L617">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M617">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N617">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O617">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P617">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q617">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R617">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S617">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T617">
         <v>2.25</v>
       </c>
       <c r="U617">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V617">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W617">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X617">
         <v>-1</v>
       </c>
       <c r="Y617">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z617">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA617">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB617">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC617">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -56194,7 +56194,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6880232</v>
+        <v>6881304</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56206,76 +56206,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F626" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G626" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H626">
+        <v>1</v>
+      </c>
+      <c r="I626">
+        <v>2</v>
+      </c>
+      <c r="J626" t="s">
+        <v>59</v>
+      </c>
+      <c r="K626">
+        <v>1.909</v>
+      </c>
+      <c r="L626">
+        <v>3.25</v>
+      </c>
+      <c r="M626">
+        <v>3.5</v>
+      </c>
+      <c r="N626">
+        <v>2.3</v>
+      </c>
+      <c r="O626">
+        <v>3.1</v>
+      </c>
+      <c r="P626">
+        <v>2.7</v>
+      </c>
+      <c r="Q626">
         <v>0</v>
       </c>
-      <c r="I626">
-        <v>0</v>
-      </c>
-      <c r="J626" t="s">
-        <v>60</v>
-      </c>
-      <c r="K626">
-        <v>1.571</v>
-      </c>
-      <c r="L626">
-        <v>3.75</v>
-      </c>
-      <c r="M626">
-        <v>4.75</v>
-      </c>
-      <c r="N626">
-        <v>1.533</v>
-      </c>
-      <c r="O626">
-        <v>3.75</v>
-      </c>
-      <c r="P626">
-        <v>5.25</v>
-      </c>
-      <c r="Q626">
-        <v>-1</v>
-      </c>
       <c r="R626">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S626">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T626">
         <v>2.5</v>
       </c>
       <c r="U626">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V626">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W626">
         <v>-1</v>
       </c>
       <c r="X626">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y626">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z626">
         <v>-1</v>
       </c>
       <c r="AA626">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB626">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC626">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56283,7 +56283,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6881355</v>
+        <v>6880232</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56295,76 +56295,76 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F627" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G627" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J627" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K627">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="L627">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M627">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N627">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="O627">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P627">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="Q627">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R627">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S627">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T627">
         <v>2.5</v>
       </c>
       <c r="U627">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V627">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W627">
         <v>-1</v>
       </c>
       <c r="X627">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y627">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z627">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA627">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB627">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC627">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56372,7 +56372,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6881304</v>
+        <v>6881355</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56384,10 +56384,10 @@
         <v>45314.69791666666</v>
       </c>
       <c r="F628" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G628" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H628">
         <v>1</v>
@@ -56399,40 +56399,40 @@
         <v>59</v>
       </c>
       <c r="K628">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L628">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M628">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="N628">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="O628">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P628">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q628">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R628">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S628">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T628">
         <v>2.5</v>
       </c>
       <c r="U628">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V628">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W628">
         <v>-1</v>
@@ -56441,16 +56441,16 @@
         <v>-1</v>
       </c>
       <c r="Y628">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="Z628">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA628">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AB628">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC628">
         <v>-1</v>
@@ -59220,7 +59220,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>7762359</v>
+        <v>7704001</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59232,76 +59232,76 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F660" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G660" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H660">
         <v>1</v>
       </c>
       <c r="I660">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J660" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K660">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="L660">
         <v>3.6</v>
       </c>
       <c r="M660">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N660">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O660">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P660">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q660">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R660">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S660">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T660">
         <v>2.5</v>
       </c>
       <c r="U660">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V660">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W660">
         <v>-1</v>
       </c>
       <c r="X660">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y660">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z660">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA660">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB660">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC660">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59309,7 +59309,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>7749447</v>
+        <v>7762359</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59321,73 +59321,73 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F661" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G661" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H661">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I661">
+        <v>2</v>
+      </c>
+      <c r="J661" t="s">
+        <v>59</v>
+      </c>
+      <c r="K661">
+        <v>2.4</v>
+      </c>
+      <c r="L661">
+        <v>3.6</v>
+      </c>
+      <c r="M661">
+        <v>2.5</v>
+      </c>
+      <c r="N661">
+        <v>2.55</v>
+      </c>
+      <c r="O661">
+        <v>3.5</v>
+      </c>
+      <c r="P661">
+        <v>2.375</v>
+      </c>
+      <c r="Q661">
+        <v>0</v>
+      </c>
+      <c r="R661">
+        <v>1.925</v>
+      </c>
+      <c r="S661">
+        <v>1.875</v>
+      </c>
+      <c r="T661">
+        <v>2.5</v>
+      </c>
+      <c r="U661">
+        <v>2</v>
+      </c>
+      <c r="V661">
+        <v>1.8</v>
+      </c>
+      <c r="W661">
+        <v>-1</v>
+      </c>
+      <c r="X661">
+        <v>-1</v>
+      </c>
+      <c r="Y661">
+        <v>1.375</v>
+      </c>
+      <c r="Z661">
+        <v>-1</v>
+      </c>
+      <c r="AA661">
+        <v>0.875</v>
+      </c>
+      <c r="AB661">
         <v>1</v>
-      </c>
-      <c r="J661" t="s">
-        <v>61</v>
-      </c>
-      <c r="K661">
-        <v>1.5</v>
-      </c>
-      <c r="L661">
-        <v>4</v>
-      </c>
-      <c r="M661">
-        <v>5.5</v>
-      </c>
-      <c r="N661">
-        <v>1.5</v>
-      </c>
-      <c r="O661">
-        <v>4.2</v>
-      </c>
-      <c r="P661">
-        <v>5.5</v>
-      </c>
-      <c r="Q661">
-        <v>-1</v>
-      </c>
-      <c r="R661">
-        <v>1.85</v>
-      </c>
-      <c r="S661">
-        <v>1.95</v>
-      </c>
-      <c r="T661">
-        <v>2.75</v>
-      </c>
-      <c r="U661">
-        <v>1.9</v>
-      </c>
-      <c r="V661">
-        <v>1.9</v>
-      </c>
-      <c r="W661">
-        <v>0.5</v>
-      </c>
-      <c r="X661">
-        <v>-1</v>
-      </c>
-      <c r="Y661">
-        <v>-1</v>
-      </c>
-      <c r="Z661">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA661">
-        <v>-1</v>
-      </c>
-      <c r="AB661">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC661">
         <v>-1</v>
@@ -59398,7 +59398,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>7704001</v>
+        <v>7749447</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59410,49 +59410,49 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F662" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G662" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I662">
         <v>1</v>
       </c>
       <c r="J662" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K662">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L662">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M662">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="N662">
+        <v>1.5</v>
+      </c>
+      <c r="O662">
         <v>4.2</v>
       </c>
-      <c r="O662">
-        <v>3.4</v>
-      </c>
       <c r="P662">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q662">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R662">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S662">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T662">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U662">
         <v>1.9</v>
@@ -59461,25 +59461,25 @@
         <v>1.9</v>
       </c>
       <c r="W662">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X662">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y662">
         <v>-1</v>
       </c>
       <c r="Z662">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA662">
         <v>-1</v>
       </c>
       <c r="AB662">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC662">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663" spans="1:29">

--- a/England National League North/England National League North.xlsx
+++ b/England National League North/England National League North.xlsx
@@ -4848,7 +4848,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880715</v>
+        <v>6880716</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4857,76 +4857,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P51">
         <v>-0.25</v>
       </c>
       <c r="Q51">
+        <v>1.975</v>
+      </c>
+      <c r="R51">
         <v>1.825</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
       </c>
       <c r="S51">
         <v>2.5</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5192,7 +5192,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6880716</v>
+        <v>6880715</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5201,76 +5201,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L55">
+        <v>3.8</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>3.3</v>
+      </c>
+      <c r="O55">
         <v>3.1</v>
-      </c>
-      <c r="M55">
-        <v>2.2</v>
-      </c>
-      <c r="N55">
-        <v>3.5</v>
-      </c>
-      <c r="O55">
-        <v>2.75</v>
       </c>
       <c r="P55">
         <v>-0.25</v>
       </c>
       <c r="Q55">
+        <v>1.825</v>
+      </c>
+      <c r="R55">
         <v>1.975</v>
-      </c>
-      <c r="R55">
-        <v>1.825</v>
       </c>
       <c r="S55">
         <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5880,7 +5880,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880576</v>
+        <v>6880575</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5889,76 +5889,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J63">
+        <v>2.25</v>
+      </c>
+      <c r="K63">
+        <v>3.2</v>
+      </c>
+      <c r="L63">
         <v>2.8</v>
       </c>
-      <c r="K63">
-        <v>3.5</v>
-      </c>
-      <c r="L63">
-        <v>2.3</v>
-      </c>
       <c r="M63">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O63">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P63">
         <v>0.25</v>
       </c>
       <c r="Q63">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
         <v>2.5</v>
       </c>
       <c r="T63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5966,7 +5966,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6880575</v>
+        <v>6880576</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5975,76 +5975,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J64">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="K64">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L64">
+        <v>2.3</v>
+      </c>
+      <c r="M64">
         <v>2.8</v>
       </c>
-      <c r="M64">
-        <v>2.9</v>
-      </c>
       <c r="N64">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P64">
         <v>0.25</v>
       </c>
       <c r="Q64">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S64">
         <v>2.5</v>
       </c>
       <c r="T64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6052,7 +6052,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880574</v>
+        <v>6880578</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6061,76 +6061,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>3.5</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L65">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="M65">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O65">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="P65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
         <v>2.5</v>
       </c>
       <c r="T65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
         <v>-1</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X65">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6138,7 +6138,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880577</v>
+        <v>6880574</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6147,76 +6147,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J66">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="K66">
+        <v>3.5</v>
+      </c>
+      <c r="L66">
+        <v>1.833</v>
+      </c>
+      <c r="M66">
         <v>3.25</v>
       </c>
-      <c r="L66">
-        <v>2.55</v>
-      </c>
-      <c r="M66">
-        <v>3.2</v>
-      </c>
       <c r="N66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O66">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="P66">
         <v>0.5</v>
       </c>
       <c r="Q66">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6224,7 +6224,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6880578</v>
+        <v>6880721</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6233,76 +6233,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J67">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="K67">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="N67">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O67">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
         <v>2.5</v>
       </c>
       <c r="T67">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6310,7 +6310,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6880721</v>
+        <v>6880722</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6319,10 +6319,10 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6334,43 +6334,43 @@
         <v>52</v>
       </c>
       <c r="J68">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="K68">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O68">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="P68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S68">
         <v>2.5</v>
       </c>
       <c r="T68">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>0.6000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6379,7 +6379,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6388,7 +6388,7 @@
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6482,7 +6482,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6880186</v>
+        <v>6880577</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6491,76 +6491,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="K70">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L70">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="M70">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
         <v>3.4</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="P70">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q70">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T70">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U70">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6568,7 +6568,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6880720</v>
+        <v>6880186</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -6577,73 +6577,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>4</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J71">
+        <v>2.375</v>
+      </c>
+      <c r="K71">
+        <v>3.5</v>
+      </c>
+      <c r="L71">
         <v>2.45</v>
       </c>
-      <c r="K71">
-        <v>3.25</v>
-      </c>
-      <c r="L71">
-        <v>2.5</v>
-      </c>
       <c r="M71">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N71">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O71">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P71">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q71">
+        <v>1.925</v>
+      </c>
+      <c r="R71">
+        <v>1.875</v>
+      </c>
+      <c r="S71">
+        <v>2.25</v>
+      </c>
+      <c r="T71">
+        <v>1.775</v>
+      </c>
+      <c r="U71">
         <v>2.025</v>
       </c>
-      <c r="R71">
-        <v>1.775</v>
-      </c>
-      <c r="S71">
-        <v>2.5</v>
-      </c>
-      <c r="T71">
-        <v>1.95</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
       <c r="V71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y71">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -6654,7 +6654,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6880187</v>
+        <v>6880720</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6663,58 +6663,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="s">
         <v>52</v>
       </c>
       <c r="J72">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="K72">
         <v>3.25</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M72">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
         <v>3.3</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P72">
         <v>-0.5</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
         <v>2.5</v>
       </c>
       <c r="T72">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6723,13 +6723,13 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -6740,7 +6740,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6880722</v>
+        <v>6880187</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6749,58 +6749,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
         <v>52</v>
       </c>
       <c r="J73">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K73">
         <v>3.25</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N73">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O73">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q73">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
         <v>2.5</v>
       </c>
       <c r="T73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -6809,16 +6809,16 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7428,7 +7428,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6880727</v>
+        <v>6880728</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7437,76 +7437,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J81">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K81">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L81">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M81">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="P81">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
         <v>2.25</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7514,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6880728</v>
+        <v>6880729</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7523,10 +7523,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7538,41 +7538,41 @@
         <v>53</v>
       </c>
       <c r="J82">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K82">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L82">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N82">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O82">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q82">
+        <v>1.825</v>
+      </c>
+      <c r="R82">
+        <v>1.975</v>
+      </c>
+      <c r="S82">
+        <v>2.5</v>
+      </c>
+      <c r="T82">
+        <v>1.95</v>
+      </c>
+      <c r="U82">
         <v>1.85</v>
       </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>2.25</v>
-      </c>
-      <c r="T82">
-        <v>1.9</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
       <c r="V82">
         <v>-1</v>
       </c>
@@ -7580,19 +7580,19 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7600,7 +7600,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6880729</v>
+        <v>6880730</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7609,76 +7609,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
         <v>3.3</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T83">
+        <v>1.75</v>
+      </c>
+      <c r="U83">
         <v>1.95</v>
       </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7686,7 +7686,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6880730</v>
+        <v>6880581</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7695,40 +7695,40 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J84">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="K84">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L84">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="M84">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N84">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O84">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -7737,34 +7737,34 @@
         <v>1.8</v>
       </c>
       <c r="S84">
+        <v>2.5</v>
+      </c>
+      <c r="T84">
+        <v>1.825</v>
+      </c>
+      <c r="U84">
+        <v>1.975</v>
+      </c>
+      <c r="V84">
+        <v>-1</v>
+      </c>
+      <c r="W84">
         <v>2.25</v>
       </c>
-      <c r="T84">
-        <v>1.75</v>
-      </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.25</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7772,7 +7772,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6880581</v>
+        <v>6880727</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7781,40 +7781,40 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J85">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="K85">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L85">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="N85">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O85">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -7823,34 +7823,34 @@
         <v>1.8</v>
       </c>
       <c r="S85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T85">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W85">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8374,7 +8374,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6880191</v>
+        <v>6880734</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8383,16 +8383,16 @@
         <v>45174.65625</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
         <v>54</v>
@@ -8401,58 +8401,58 @@
         <v>2.75</v>
       </c>
       <c r="K92">
+        <v>3.4</v>
+      </c>
+      <c r="L92">
+        <v>2.25</v>
+      </c>
+      <c r="M92">
+        <v>2.2</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
       </c>
-      <c r="L92">
-        <v>2.2</v>
-      </c>
-      <c r="M92">
-        <v>2.6</v>
-      </c>
-      <c r="N92">
-        <v>3.6</v>
-      </c>
       <c r="O92">
+        <v>2.75</v>
+      </c>
+      <c r="P92">
+        <v>-0.25</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
         <v>2.25</v>
       </c>
-      <c r="P92">
-        <v>0.25</v>
-      </c>
-      <c r="Q92">
-        <v>1.775</v>
-      </c>
-      <c r="R92">
-        <v>2.025</v>
-      </c>
-      <c r="S92">
+      <c r="T92">
+        <v>1.9</v>
+      </c>
+      <c r="U92">
+        <v>1.9</v>
+      </c>
+      <c r="V92">
+        <v>-1</v>
+      </c>
+      <c r="W92">
         <v>2.5</v>
       </c>
-      <c r="T92">
-        <v>1.95</v>
-      </c>
-      <c r="U92">
-        <v>1.85</v>
-      </c>
-      <c r="V92">
-        <v>-1</v>
-      </c>
-      <c r="W92">
-        <v>2.6</v>
-      </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z92">
+        <v>0.4</v>
+      </c>
+      <c r="AA92">
         <v>-0.5</v>
       </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8460,7 +8460,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6880734</v>
+        <v>6880733</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8469,76 +8469,76 @@
         <v>45174.65625</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
         <v>54</v>
       </c>
       <c r="J93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K93">
         <v>3.4</v>
       </c>
       <c r="L93">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M93">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O93">
+        <v>2.1</v>
+      </c>
+      <c r="P93">
+        <v>0.25</v>
+      </c>
+      <c r="Q93">
+        <v>1.85</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>2.75</v>
       </c>
-      <c r="P93">
-        <v>-0.25</v>
-      </c>
-      <c r="Q93">
-        <v>2</v>
-      </c>
-      <c r="R93">
-        <v>1.8</v>
-      </c>
-      <c r="S93">
-        <v>2.25</v>
-      </c>
       <c r="T93">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
         <v>-1</v>
       </c>
       <c r="W93">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
+        <v>0.425</v>
+      </c>
+      <c r="Z93">
         <v>-0.5</v>
       </c>
-      <c r="Z93">
-        <v>0.4</v>
-      </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8546,7 +8546,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6880733</v>
+        <v>6880732</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8555,40 +8555,40 @@
         <v>45174.65625</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="K94">
         <v>3.4</v>
       </c>
       <c r="L94">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N94">
         <v>3.6</v>
       </c>
       <c r="O94">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="P94">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q94">
         <v>1.85</v>
@@ -8597,7 +8597,7 @@
         <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T94">
         <v>1.875</v>
@@ -8609,22 +8609,22 @@
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y94">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8632,7 +8632,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6880732</v>
+        <v>6880589</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8641,73 +8641,73 @@
         <v>45174.65625</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J95">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="K95">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
+        <v>2.25</v>
+      </c>
+      <c r="M95">
+        <v>2.7</v>
+      </c>
+      <c r="N95">
         <v>3.75</v>
       </c>
-      <c r="M95">
-        <v>1.571</v>
-      </c>
-      <c r="N95">
-        <v>3.6</v>
-      </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="P95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T95">
+        <v>1.925</v>
+      </c>
+      <c r="U95">
         <v>1.875</v>
       </c>
-      <c r="U95">
-        <v>1.925</v>
-      </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X95">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB95">
         <v>-1</v>
@@ -8718,7 +8718,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6880731</v>
+        <v>6880191</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8727,76 +8727,76 @@
         <v>45174.65625</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J96">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="M96">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="P96">
+        <v>0.25</v>
+      </c>
+      <c r="Q96">
+        <v>1.775</v>
+      </c>
+      <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
+        <v>2.5</v>
+      </c>
+      <c r="T96">
+        <v>1.95</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>-1</v>
+      </c>
+      <c r="W96">
+        <v>2.6</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>0.3875</v>
+      </c>
+      <c r="Z96">
         <v>-0.5</v>
       </c>
-      <c r="Q96">
-        <v>1.85</v>
-      </c>
-      <c r="R96">
-        <v>1.95</v>
-      </c>
-      <c r="S96">
-        <v>2.75</v>
-      </c>
-      <c r="T96">
-        <v>1.8</v>
-      </c>
-      <c r="U96">
-        <v>2</v>
-      </c>
-      <c r="V96">
-        <v>0.833</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
+      <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z96">
-        <v>-1</v>
-      </c>
-      <c r="AA96">
-        <v>0.8</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8804,7 +8804,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6880589</v>
+        <v>6880731</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8813,73 +8813,73 @@
         <v>45174.65625</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>52</v>
+      </c>
+      <c r="J97">
+        <v>2.1</v>
+      </c>
+      <c r="K97">
+        <v>3.4</v>
+      </c>
+      <c r="L97">
         <v>3</v>
       </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
-      <c r="I97" t="s">
-        <v>54</v>
-      </c>
-      <c r="J97">
-        <v>2.625</v>
-      </c>
-      <c r="K97">
-        <v>3.6</v>
-      </c>
-      <c r="L97">
-        <v>2.25</v>
-      </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N97">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O97">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W97">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9922,7 +9922,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6880740</v>
+        <v>6880597</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -9931,76 +9931,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J110">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="K110">
         <v>3.25</v>
       </c>
       <c r="L110">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="M110">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="P110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q110">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R110">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -10008,7 +10008,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6879640</v>
+        <v>6880740</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -10017,76 +10017,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J111">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="K111">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
+        <v>2.8</v>
+      </c>
+      <c r="M111">
+        <v>2.3</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111">
+        <v>2.875</v>
+      </c>
+      <c r="P111">
+        <v>-0.25</v>
+      </c>
+      <c r="Q111">
+        <v>2.05</v>
+      </c>
+      <c r="R111">
+        <v>1.75</v>
+      </c>
+      <c r="S111">
+        <v>2.25</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.8</v>
       </c>
-      <c r="M111">
-        <v>2.75</v>
-      </c>
-      <c r="N111">
-        <v>3.5</v>
-      </c>
-      <c r="O111">
-        <v>2.2</v>
-      </c>
-      <c r="P111">
-        <v>0.25</v>
-      </c>
-      <c r="Q111">
-        <v>1.8</v>
-      </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>2.5</v>
-      </c>
-      <c r="T111">
-        <v>1.75</v>
-      </c>
-      <c r="U111">
-        <v>1.95</v>
-      </c>
       <c r="V111">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W111">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10094,7 +10094,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6880195</v>
+        <v>6879640</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10103,40 +10103,40 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J112">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="K112">
         <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="M112">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="P112">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q112">
         <v>1.8</v>
@@ -10148,31 +10148,31 @@
         <v>2.5</v>
       </c>
       <c r="T112">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X112">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10180,7 +10180,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6880595</v>
+        <v>6880195</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10189,55 +10189,55 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
         <v>53</v>
       </c>
       <c r="J113">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="K113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
         <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="N113">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S113">
         <v>2.5</v>
       </c>
       <c r="T113">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V113">
         <v>-1</v>
@@ -10246,19 +10246,19 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10266,7 +10266,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880196</v>
+        <v>6880595</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10275,55 +10275,55 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
         <v>53</v>
       </c>
       <c r="J114">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K114">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L114">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N114">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O114">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P114">
         <v>-0.25</v>
       </c>
       <c r="Q114">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
         <v>2.5</v>
       </c>
       <c r="T114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
         <v>-1</v>
@@ -10332,19 +10332,19 @@
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10352,7 +10352,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6880741</v>
+        <v>6880196</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10361,76 +10361,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J115">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K115">
         <v>3.25</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M115">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N115">
         <v>3.25</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P115">
         <v>-0.25</v>
       </c>
       <c r="Q115">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
         <v>2.5</v>
       </c>
       <c r="T115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
         <v>-1</v>
       </c>
       <c r="W115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10438,7 +10438,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6880599</v>
+        <v>6880741</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10447,76 +10447,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J116">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K116">
         <v>3.25</v>
       </c>
       <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>2.15</v>
+      </c>
+      <c r="N116">
         <v>3.25</v>
       </c>
-      <c r="M116">
-        <v>2.2</v>
-      </c>
-      <c r="N116">
-        <v>3.3</v>
-      </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P116">
         <v>-0.25</v>
       </c>
       <c r="Q116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
         <v>2.5</v>
       </c>
       <c r="T116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10524,7 +10524,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6880742</v>
+        <v>6880599</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10533,67 +10533,67 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J117">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L117">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O117">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
         <v>2.5</v>
       </c>
       <c r="T117">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z117">
         <v>-1</v>
@@ -10602,7 +10602,7 @@
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10610,7 +10610,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6880598</v>
+        <v>6880742</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10619,76 +10619,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J118">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K118">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L118">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="N118">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O118">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q118">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S118">
         <v>2.5</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10696,7 +10696,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6880597</v>
+        <v>6880598</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10705,73 +10705,73 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J119">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="K119">
         <v>3.25</v>
       </c>
       <c r="L119">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P119">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q119">
+        <v>1.85</v>
+      </c>
+      <c r="R119">
         <v>1.95</v>
-      </c>
-      <c r="R119">
-        <v>1.85</v>
       </c>
       <c r="S119">
         <v>2.5</v>
       </c>
       <c r="T119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -13534,7 +13534,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880754</v>
+        <v>6880756</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13543,76 +13543,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
         <v>0</v>
       </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>1.615</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L152">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="N152">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O152">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P152">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q152">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z152">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13620,7 +13620,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880756</v>
+        <v>6880754</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13629,76 +13629,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>1</v>
       </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>1.615</v>
       </c>
       <c r="K153">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M153">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="N153">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O153">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P153">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q153">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T153">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -14222,7 +14222,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6880202</v>
+        <v>6879644</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14231,58 +14231,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>52</v>
       </c>
       <c r="J160">
+        <v>2.25</v>
+      </c>
+      <c r="K160">
+        <v>3.25</v>
+      </c>
+      <c r="L160">
+        <v>2.75</v>
+      </c>
+      <c r="M160">
         <v>2.05</v>
       </c>
-      <c r="K160">
+      <c r="N160">
         <v>3.4</v>
       </c>
-      <c r="L160">
-        <v>3</v>
-      </c>
-      <c r="M160">
-        <v>1.75</v>
-      </c>
-      <c r="N160">
-        <v>3.8</v>
-      </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q160">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14291,13 +14291,13 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14308,7 +14308,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6879644</v>
+        <v>6880202</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14317,58 +14317,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E161" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
         <v>52</v>
       </c>
       <c r="J161">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N161">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O161">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V161">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14377,13 +14377,13 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -21790,7 +21790,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7571989</v>
+        <v>7563128</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21799,73 +21799,73 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E248" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F248" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J248">
+        <v>2.3</v>
+      </c>
+      <c r="K248">
+        <v>3.5</v>
+      </c>
+      <c r="L248">
+        <v>2.55</v>
+      </c>
+      <c r="M248">
         <v>1.8</v>
       </c>
-      <c r="K248">
-        <v>3.4</v>
-      </c>
-      <c r="L248">
-        <v>3.75</v>
-      </c>
-      <c r="M248">
-        <v>1.75</v>
-      </c>
       <c r="N248">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O248">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P248">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q248">
+        <v>1.85</v>
+      </c>
+      <c r="R248">
         <v>1.95</v>
-      </c>
-      <c r="R248">
-        <v>1.75</v>
       </c>
       <c r="S248">
         <v>2.5</v>
       </c>
       <c r="T248">
+        <v>1.825</v>
+      </c>
+      <c r="U248">
         <v>1.975</v>
       </c>
-      <c r="U248">
-        <v>1.825</v>
-      </c>
       <c r="V248">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y248">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA248">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB248">
         <v>-1</v>
@@ -21962,7 +21962,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7563128</v>
+        <v>7571989</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21971,73 +21971,73 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E250" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H250">
         <v>2</v>
       </c>
       <c r="I250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J250">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="K250">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L250">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="M250">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N250">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O250">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P250">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q250">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S250">
         <v>2.5</v>
       </c>
       <c r="T250">
+        <v>1.975</v>
+      </c>
+      <c r="U250">
         <v>1.825</v>
       </c>
-      <c r="U250">
-        <v>1.975</v>
-      </c>
       <c r="V250">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z250">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB250">
         <v>-1</v>
@@ -23080,7 +23080,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7486521</v>
+        <v>7472851</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
@@ -23089,76 +23089,76 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E263" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J263">
+        <v>2.875</v>
+      </c>
+      <c r="K263">
         <v>3.3</v>
       </c>
-      <c r="K263">
+      <c r="L263">
+        <v>2.25</v>
+      </c>
+      <c r="M263">
         <v>3.4</v>
-      </c>
-      <c r="L263">
-        <v>2</v>
-      </c>
-      <c r="M263">
-        <v>2.875</v>
       </c>
       <c r="N263">
         <v>3.5</v>
       </c>
       <c r="O263">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="P263">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q263">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S263">
         <v>2.75</v>
       </c>
       <c r="T263">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U263">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA263">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23166,7 +23166,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7472851</v>
+        <v>7486521</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23175,76 +23175,76 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E264" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J264">
+        <v>3.3</v>
+      </c>
+      <c r="K264">
+        <v>3.4</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="M264">
         <v>2.875</v>
-      </c>
-      <c r="K264">
-        <v>3.3</v>
-      </c>
-      <c r="L264">
-        <v>2.25</v>
-      </c>
-      <c r="M264">
-        <v>3.4</v>
       </c>
       <c r="N264">
         <v>3.5</v>
       </c>
       <c r="O264">
+        <v>2.15</v>
+      </c>
+      <c r="P264">
+        <v>0.25</v>
+      </c>
+      <c r="Q264">
+        <v>1.85</v>
+      </c>
+      <c r="R264">
         <v>1.95</v>
-      </c>
-      <c r="P264">
-        <v>0.5</v>
-      </c>
-      <c r="Q264">
-        <v>1.775</v>
-      </c>
-      <c r="R264">
-        <v>2.025</v>
       </c>
       <c r="S264">
         <v>2.75</v>
       </c>
       <c r="T264">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V264">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z264">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -25402,7 +25402,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6880684</v>
+        <v>6880804</v>
       </c>
       <c r="C290" t="s">
         <v>27</v>
@@ -25411,73 +25411,73 @@
         <v>45290.5</v>
       </c>
       <c r="E290" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F290" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G290">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H290">
         <v>2</v>
       </c>
       <c r="I290" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J290">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="K290">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L290">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="M290">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="N290">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O290">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="P290">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q290">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R290">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S290">
         <v>2.5</v>
       </c>
       <c r="T290">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U290">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V290">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W290">
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y290">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA290">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB290">
         <v>-1</v>
@@ -25488,7 +25488,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6880804</v>
+        <v>6880684</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -25497,73 +25497,73 @@
         <v>45290.5</v>
       </c>
       <c r="E291" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F291" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H291">
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J291">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="K291">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L291">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="M291">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="N291">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O291">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="P291">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q291">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R291">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S291">
         <v>2.5</v>
       </c>
       <c r="T291">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U291">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W291">
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z291">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB291">
         <v>-1</v>
@@ -27294,7 +27294,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7571990</v>
+        <v>7571997</v>
       </c>
       <c r="C312" t="s">
         <v>27</v>
@@ -27303,76 +27303,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E312" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F312" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J312">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K312">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L312">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="M312">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N312">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O312">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="P312">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q312">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="R312">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S312">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T312">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U312">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V312">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W312">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0.425</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z312">
+        <v>-1</v>
+      </c>
+      <c r="AA312">
         <v>-0.5</v>
       </c>
-      <c r="AA312">
-        <v>-1</v>
-      </c>
       <c r="AB312">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="313" spans="1:28">
@@ -27380,7 +27380,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7571997</v>
+        <v>7571990</v>
       </c>
       <c r="C313" t="s">
         <v>27</v>
@@ -27389,76 +27389,76 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E313" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F313" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J313">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K313">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L313">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M313">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N313">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O313">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="P313">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q313">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="R313">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S313">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T313">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U313">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V313">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W313">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>0.7250000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA313">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:28">
@@ -27466,7 +27466,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7651540</v>
+        <v>7660170</v>
       </c>
       <c r="C314" t="s">
         <v>27</v>
@@ -27475,13 +27475,13 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E314" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F314" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H314">
         <v>3</v>
@@ -27490,25 +27490,25 @@
         <v>53</v>
       </c>
       <c r="J314">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="K314">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L314">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="M314">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N314">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O314">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="P314">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q314">
         <v>2</v>
@@ -27517,13 +27517,13 @@
         <v>1.8</v>
       </c>
       <c r="S314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T314">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U314">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V314">
         <v>-1</v>
@@ -27532,16 +27532,16 @@
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>0.95</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y314">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z314">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA314">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB314">
         <v>-1</v>
@@ -27552,7 +27552,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7660170</v>
+        <v>7651540</v>
       </c>
       <c r="C315" t="s">
         <v>27</v>
@@ -27561,13 +27561,13 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E315" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F315" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H315">
         <v>3</v>
@@ -27576,25 +27576,25 @@
         <v>53</v>
       </c>
       <c r="J315">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="K315">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L315">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M315">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N315">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O315">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P315">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q315">
         <v>2</v>
@@ -27603,13 +27603,13 @@
         <v>1.8</v>
       </c>
       <c r="S315">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T315">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U315">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V315">
         <v>-1</v>
@@ -27618,16 +27618,16 @@
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>0.6000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Y315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA315">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB315">
         <v>-1</v>
@@ -29272,7 +29272,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6880813</v>
+        <v>6880700</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29281,49 +29281,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E335" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F335" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I335" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J335">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K335">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L335">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M335">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N335">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O335">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="P335">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q335">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R335">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S335">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T335">
         <v>2</v>
@@ -29335,22 +29335,22 @@
         <v>-1</v>
       </c>
       <c r="W335">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y335">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA335">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB335">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29358,7 +29358,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6880700</v>
+        <v>6880813</v>
       </c>
       <c r="C336" t="s">
         <v>27</v>
@@ -29367,49 +29367,49 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E336" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F336" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H336">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I336" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J336">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K336">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L336">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M336">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N336">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O336">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P336">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q336">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R336">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S336">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T336">
         <v>2</v>
@@ -29421,22 +29421,22 @@
         <v>-1</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X336">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z336">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA336">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -29444,7 +29444,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6881305</v>
+        <v>6881304</v>
       </c>
       <c r="C337" t="s">
         <v>27</v>
@@ -29453,55 +29453,55 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E337" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F337" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="s">
         <v>53</v>
       </c>
       <c r="J337">
+        <v>1.909</v>
+      </c>
+      <c r="K337">
+        <v>3.25</v>
+      </c>
+      <c r="L337">
+        <v>3.5</v>
+      </c>
+      <c r="M337">
         <v>2.3</v>
       </c>
-      <c r="K337">
-        <v>3.5</v>
-      </c>
-      <c r="L337">
-        <v>2.55</v>
-      </c>
-      <c r="M337">
+      <c r="N337">
+        <v>3.1</v>
+      </c>
+      <c r="O337">
+        <v>2.7</v>
+      </c>
+      <c r="P337">
+        <v>0</v>
+      </c>
+      <c r="Q337">
+        <v>1.775</v>
+      </c>
+      <c r="R337">
+        <v>2.025</v>
+      </c>
+      <c r="S337">
         <v>2.5</v>
       </c>
-      <c r="N337">
-        <v>3.6</v>
-      </c>
-      <c r="O337">
-        <v>2.3</v>
-      </c>
-      <c r="P337">
-        <v>0.25</v>
-      </c>
-      <c r="Q337">
-        <v>1.725</v>
-      </c>
-      <c r="R337">
+      <c r="T337">
         <v>1.975</v>
       </c>
-      <c r="S337">
-        <v>2.75</v>
-      </c>
-      <c r="T337">
-        <v>1.95</v>
-      </c>
       <c r="U337">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V337">
         <v>-1</v>
@@ -29510,19 +29510,19 @@
         <v>-1</v>
       </c>
       <c r="X337">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
+        <v>1.025</v>
+      </c>
+      <c r="AA337">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA337">
-        <v>-1</v>
-      </c>
       <c r="AB337">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:28">
@@ -29616,7 +29616,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6881356</v>
+        <v>6881305</v>
       </c>
       <c r="C339" t="s">
         <v>27</v>
@@ -29625,56 +29625,56 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E339" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F339" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G339">
         <v>0</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="s">
         <v>53</v>
       </c>
       <c r="J339">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="K339">
+        <v>3.5</v>
+      </c>
+      <c r="L339">
+        <v>2.55</v>
+      </c>
+      <c r="M339">
+        <v>2.5</v>
+      </c>
+      <c r="N339">
         <v>3.6</v>
       </c>
-      <c r="L339">
-        <v>3.4</v>
-      </c>
-      <c r="M339">
-        <v>2.15</v>
-      </c>
-      <c r="N339">
-        <v>3.4</v>
-      </c>
       <c r="O339">
+        <v>2.3</v>
+      </c>
+      <c r="P339">
+        <v>0.25</v>
+      </c>
+      <c r="Q339">
+        <v>1.725</v>
+      </c>
+      <c r="R339">
+        <v>1.975</v>
+      </c>
+      <c r="S339">
         <v>2.75</v>
       </c>
-      <c r="P339">
-        <v>-0.25</v>
-      </c>
-      <c r="Q339">
+      <c r="T339">
         <v>1.95</v>
       </c>
-      <c r="R339">
+      <c r="U339">
         <v>1.85</v>
       </c>
-      <c r="S339">
-        <v>2.25</v>
-      </c>
-      <c r="T339">
-        <v>1.925</v>
-      </c>
-      <c r="U339">
-        <v>1.875</v>
-      </c>
       <c r="V339">
         <v>-1</v>
       </c>
@@ -29682,19 +29682,19 @@
         <v>-1</v>
       </c>
       <c r="X339">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA339">
+        <v>-1</v>
+      </c>
+      <c r="AB339">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA339">
-        <v>-0.5</v>
-      </c>
-      <c r="AB339">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="340" spans="1:28">
@@ -29702,7 +29702,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6881304</v>
+        <v>6881356</v>
       </c>
       <c r="C340" t="s">
         <v>27</v>
@@ -29711,13 +29711,13 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E340" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F340" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -29726,40 +29726,40 @@
         <v>53</v>
       </c>
       <c r="J340">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K340">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L340">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M340">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N340">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O340">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P340">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q340">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R340">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S340">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T340">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U340">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V340">
         <v>-1</v>
@@ -29768,19 +29768,19 @@
         <v>-1</v>
       </c>
       <c r="X340">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA340">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="341" spans="1:28">
@@ -29788,7 +29788,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6881405</v>
+        <v>6881433</v>
       </c>
       <c r="C341" t="s">
         <v>27</v>
@@ -29797,76 +29797,76 @@
         <v>45318.5</v>
       </c>
       <c r="E341" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F341" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I341" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J341">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="K341">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L341">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="M341">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="N341">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O341">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="P341">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q341">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R341">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S341">
         <v>2.5</v>
       </c>
       <c r="T341">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U341">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V341">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W341">
         <v>-1</v>
       </c>
       <c r="X341">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y341">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA341">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB341">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:28">
@@ -29874,7 +29874,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6881433</v>
+        <v>6881405</v>
       </c>
       <c r="C342" t="s">
         <v>27</v>
@@ -29883,76 +29883,76 @@
         <v>45318.5</v>
       </c>
       <c r="E342" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F342" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342" t="s">
+        <v>52</v>
+      </c>
+      <c r="J342">
+        <v>1.444</v>
+      </c>
+      <c r="K342">
         <v>4</v>
       </c>
-      <c r="I342" t="s">
-        <v>53</v>
-      </c>
-      <c r="J342">
-        <v>2.5</v>
-      </c>
-      <c r="K342">
-        <v>3.4</v>
-      </c>
       <c r="L342">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="M342">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="N342">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O342">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="P342">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q342">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R342">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S342">
         <v>2.5</v>
       </c>
       <c r="T342">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U342">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V342">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z342">
+        <v>-1</v>
+      </c>
+      <c r="AA342">
+        <v>-1</v>
+      </c>
+      <c r="AB342">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA342">
-        <v>0.875</v>
-      </c>
-      <c r="AB342">
-        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -31164,7 +31164,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6881531</v>
+        <v>6881408</v>
       </c>
       <c r="C357" t="s">
         <v>27</v>
@@ -31173,76 +31173,76 @@
         <v>45325.5</v>
       </c>
       <c r="E357" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F357" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J357">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="K357">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L357">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M357">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="N357">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O357">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="P357">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q357">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R357">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S357">
         <v>2.5</v>
       </c>
       <c r="T357">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U357">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V357">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W357">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X357">
         <v>-1</v>
       </c>
       <c r="Y357">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z357">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
         <v>-1</v>
       </c>
       <c r="AB357">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:28">
@@ -31422,7 +31422,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6881408</v>
+        <v>6881531</v>
       </c>
       <c r="C360" t="s">
         <v>27</v>
@@ -31431,76 +31431,76 @@
         <v>45325.5</v>
       </c>
       <c r="E360" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F360" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J360">
+        <v>1.533</v>
+      </c>
+      <c r="K360">
+        <v>3.75</v>
+      </c>
+      <c r="L360">
+        <v>5.5</v>
+      </c>
+      <c r="M360">
         <v>1.363</v>
       </c>
-      <c r="K360">
-        <v>4.4</v>
-      </c>
-      <c r="L360">
-        <v>7</v>
-      </c>
-      <c r="M360">
-        <v>1.5</v>
-      </c>
       <c r="N360">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O360">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="P360">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q360">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R360">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
         <v>2.5</v>
       </c>
       <c r="T360">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U360">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V360">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA360">
         <v>-1</v>
       </c>
       <c r="AB360">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="361" spans="1:28">
@@ -31594,7 +31594,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6881532</v>
+        <v>6881455</v>
       </c>
       <c r="C362" t="s">
         <v>27</v>
@@ -31603,76 +31603,76 @@
         <v>45325.5</v>
       </c>
       <c r="E362" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F362" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H362">
         <v>1</v>
       </c>
       <c r="I362" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J362">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="K362">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L362">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M362">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N362">
         <v>3.6</v>
       </c>
       <c r="O362">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P362">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q362">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R362">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S362">
         <v>2.5</v>
       </c>
       <c r="T362">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U362">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V362">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W362">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA362">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:28">
@@ -31680,7 +31680,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6881455</v>
+        <v>6881454</v>
       </c>
       <c r="C363" t="s">
         <v>27</v>
@@ -31689,76 +31689,76 @@
         <v>45325.5</v>
       </c>
       <c r="E363" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G363">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J363">
+        <v>1.615</v>
+      </c>
+      <c r="K363">
+        <v>3.9</v>
+      </c>
+      <c r="L363">
+        <v>4.4</v>
+      </c>
+      <c r="M363">
+        <v>1.65</v>
+      </c>
+      <c r="N363">
+        <v>3.8</v>
+      </c>
+      <c r="O363">
+        <v>4.2</v>
+      </c>
+      <c r="P363">
+        <v>-0.75</v>
+      </c>
+      <c r="Q363">
         <v>1.85</v>
       </c>
-      <c r="K363">
-        <v>3.6</v>
-      </c>
-      <c r="L363">
-        <v>3.5</v>
-      </c>
-      <c r="M363">
+      <c r="R363">
         <v>1.95</v>
-      </c>
-      <c r="N363">
-        <v>3.6</v>
-      </c>
-      <c r="O363">
-        <v>3.2</v>
-      </c>
-      <c r="P363">
-        <v>-0.5</v>
-      </c>
-      <c r="Q363">
-        <v>2</v>
-      </c>
-      <c r="R363">
-        <v>1.8</v>
       </c>
       <c r="S363">
         <v>2.5</v>
       </c>
       <c r="T363">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U363">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V363">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W363">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z363">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB363">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:28">
@@ -31766,7 +31766,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6881454</v>
+        <v>6881437</v>
       </c>
       <c r="C364" t="s">
         <v>27</v>
@@ -31775,58 +31775,58 @@
         <v>45325.5</v>
       </c>
       <c r="E364" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F364" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364" t="s">
         <v>52</v>
       </c>
       <c r="J364">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="K364">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L364">
-        <v>4.4</v>
+        <v>2.625</v>
       </c>
       <c r="M364">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N364">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O364">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="P364">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q364">
+        <v>1.95</v>
+      </c>
+      <c r="R364">
         <v>1.85</v>
-      </c>
-      <c r="R364">
-        <v>1.95</v>
       </c>
       <c r="S364">
         <v>2.5</v>
       </c>
       <c r="T364">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U364">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V364">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="W364">
         <v>-1</v>
@@ -31835,13 +31835,13 @@
         <v>-1</v>
       </c>
       <c r="Y364">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z364">
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB364">
         <v>-1</v>
@@ -31852,7 +31852,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6881437</v>
+        <v>6881532</v>
       </c>
       <c r="C365" t="s">
         <v>27</v>
@@ -31861,13 +31861,13 @@
         <v>45325.5</v>
       </c>
       <c r="E365" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F365" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -31876,25 +31876,25 @@
         <v>52</v>
       </c>
       <c r="J365">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="K365">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L365">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="M365">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N365">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O365">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P365">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q365">
         <v>1.95</v>
@@ -31906,13 +31906,13 @@
         <v>2.5</v>
       </c>
       <c r="T365">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U365">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V365">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="W365">
         <v>-1</v>
@@ -31927,7 +31927,7 @@
         <v>-1</v>
       </c>
       <c r="AA365">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB365">
         <v>-1</v>
@@ -32024,7 +32024,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6881453</v>
+        <v>6881436</v>
       </c>
       <c r="C367" t="s">
         <v>27</v>
@@ -32033,76 +32033,76 @@
         <v>45325.5</v>
       </c>
       <c r="E367" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F367" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G367">
         <v>0</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I367" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J367">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="K367">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L367">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="M367">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N367">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O367">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="P367">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q367">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R367">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S367">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T367">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U367">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V367">
         <v>-1</v>
       </c>
       <c r="W367">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y367">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB367">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:28">
@@ -32110,7 +32110,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6881436</v>
+        <v>6881453</v>
       </c>
       <c r="C368" t="s">
         <v>27</v>
@@ -32119,76 +32119,76 @@
         <v>45325.5</v>
       </c>
       <c r="E368" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F368" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G368">
         <v>0</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J368">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K368">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L368">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="M368">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N368">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O368">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="P368">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q368">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R368">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S368">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T368">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U368">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V368">
         <v>-1</v>
       </c>
       <c r="W368">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X368">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z368">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA368">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="369" spans="1:28">
@@ -37700,7 +37700,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7820533</v>
+        <v>7749451</v>
       </c>
       <c r="C433" t="s">
         <v>27</v>
@@ -37709,58 +37709,58 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E433" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F433" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G433">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I433" t="s">
         <v>52</v>
       </c>
       <c r="J433">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="K433">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L433">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M433">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N433">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O433">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="P433">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q433">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R433">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S433">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T433">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U433">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V433">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="W433">
         <v>-1</v>
@@ -37769,13 +37769,13 @@
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="Z433">
         <v>-1</v>
       </c>
       <c r="AA433">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB433">
         <v>-1</v>
@@ -37872,7 +37872,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>7749451</v>
+        <v>7820533</v>
       </c>
       <c r="C435" t="s">
         <v>27</v>
@@ -37881,59 +37881,59 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E435" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F435" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G435">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="s">
         <v>52</v>
       </c>
       <c r="J435">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="K435">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L435">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="M435">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N435">
+        <v>3.25</v>
+      </c>
+      <c r="O435">
+        <v>1.833</v>
+      </c>
+      <c r="P435">
+        <v>0.5</v>
+      </c>
+      <c r="Q435">
+        <v>1.95</v>
+      </c>
+      <c r="R435">
+        <v>1.85</v>
+      </c>
+      <c r="S435">
+        <v>2.5</v>
+      </c>
+      <c r="T435">
+        <v>1.975</v>
+      </c>
+      <c r="U435">
+        <v>1.825</v>
+      </c>
+      <c r="V435">
         <v>3.2</v>
       </c>
-      <c r="O435">
-        <v>2.55</v>
-      </c>
-      <c r="P435">
-        <v>0</v>
-      </c>
-      <c r="Q435">
-        <v>1.925</v>
-      </c>
-      <c r="R435">
-        <v>1.875</v>
-      </c>
-      <c r="S435">
-        <v>2.25</v>
-      </c>
-      <c r="T435">
-        <v>2.025</v>
-      </c>
-      <c r="U435">
-        <v>1.775</v>
-      </c>
-      <c r="V435">
-        <v>1.6</v>
-      </c>
       <c r="W435">
         <v>-1</v>
       </c>
@@ -37941,13 +37941,13 @@
         <v>-1</v>
       </c>
       <c r="Y435">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z435">
         <v>-1</v>
       </c>
       <c r="AA435">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB435">
         <v>-1</v>
@@ -37958,7 +37958,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7902979</v>
+        <v>7830450</v>
       </c>
       <c r="C436" t="s">
         <v>27</v>
@@ -37967,55 +37967,55 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E436" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F436" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G436">
         <v>1</v>
       </c>
       <c r="H436">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I436" t="s">
         <v>53</v>
       </c>
       <c r="J436">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="K436">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L436">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="M436">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N436">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O436">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="P436">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q436">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R436">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S436">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T436">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U436">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V436">
         <v>-1</v>
@@ -38024,16 +38024,16 @@
         <v>-1</v>
       </c>
       <c r="X436">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Y436">
         <v>-1</v>
       </c>
       <c r="Z436">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA436">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB436">
         <v>-1</v>
@@ -38130,7 +38130,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7830450</v>
+        <v>7902979</v>
       </c>
       <c r="C438" t="s">
         <v>27</v>
@@ -38139,56 +38139,56 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E438" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F438" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G438">
         <v>1</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I438" t="s">
         <v>53</v>
       </c>
       <c r="J438">
+        <v>6.5</v>
+      </c>
+      <c r="K438">
+        <v>4</v>
+      </c>
+      <c r="L438">
+        <v>1.444</v>
+      </c>
+      <c r="M438">
+        <v>5.5</v>
+      </c>
+      <c r="N438">
+        <v>3.75</v>
+      </c>
+      <c r="O438">
+        <v>1.55</v>
+      </c>
+      <c r="P438">
+        <v>1</v>
+      </c>
+      <c r="Q438">
+        <v>1.875</v>
+      </c>
+      <c r="R438">
+        <v>1.925</v>
+      </c>
+      <c r="S438">
         <v>2.75</v>
       </c>
-      <c r="K438">
-        <v>3.4</v>
-      </c>
-      <c r="L438">
-        <v>2.3</v>
-      </c>
-      <c r="M438">
-        <v>3.2</v>
-      </c>
-      <c r="N438">
-        <v>3.25</v>
-      </c>
-      <c r="O438">
-        <v>2.15</v>
-      </c>
-      <c r="P438">
-        <v>0.25</v>
-      </c>
-      <c r="Q438">
+      <c r="T438">
         <v>1.9</v>
       </c>
-      <c r="R438">
+      <c r="U438">
         <v>1.9</v>
       </c>
-      <c r="S438">
-        <v>2.5</v>
-      </c>
-      <c r="T438">
-        <v>1.85</v>
-      </c>
-      <c r="U438">
-        <v>1.95</v>
-      </c>
       <c r="V438">
         <v>-1</v>
       </c>
@@ -38196,16 +38196,16 @@
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Y438">
         <v>-1</v>
       </c>
       <c r="Z438">
+        <v>0.925</v>
+      </c>
+      <c r="AA438">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA438">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB438">
         <v>-1</v>
@@ -38646,7 +38646,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6882641</v>
+        <v>6882642</v>
       </c>
       <c r="C444" t="s">
         <v>27</v>
@@ -38655,76 +38655,76 @@
         <v>45360.5</v>
       </c>
       <c r="E444" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F444" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G444">
         <v>0</v>
       </c>
       <c r="H444">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I444" t="s">
         <v>53</v>
       </c>
       <c r="J444">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="K444">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L444">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="M444">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N444">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O444">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="P444">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q444">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R444">
+        <v>1.8</v>
+      </c>
+      <c r="S444">
+        <v>2.25</v>
+      </c>
+      <c r="T444">
+        <v>1.825</v>
+      </c>
+      <c r="U444">
+        <v>1.975</v>
+      </c>
+      <c r="V444">
+        <v>-1</v>
+      </c>
+      <c r="W444">
+        <v>-1</v>
+      </c>
+      <c r="X444">
         <v>1.875</v>
       </c>
-      <c r="S444">
-        <v>3</v>
-      </c>
-      <c r="T444">
-        <v>1.925</v>
-      </c>
-      <c r="U444">
-        <v>1.875</v>
-      </c>
-      <c r="V444">
-        <v>-1</v>
-      </c>
-      <c r="W444">
-        <v>-1</v>
-      </c>
-      <c r="X444">
-        <v>0.222</v>
-      </c>
       <c r="Y444">
         <v>-1</v>
       </c>
       <c r="Z444">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA444">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="445" spans="1:28">
@@ -39076,7 +39076,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6882642</v>
+        <v>6882641</v>
       </c>
       <c r="C449" t="s">
         <v>27</v>
@@ -39085,55 +39085,55 @@
         <v>45360.5</v>
       </c>
       <c r="E449" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F449" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G449">
         <v>0</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I449" t="s">
         <v>53</v>
       </c>
       <c r="J449">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="K449">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L449">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="M449">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N449">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O449">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="P449">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q449">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R449">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S449">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T449">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U449">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V449">
         <v>-1</v>
@@ -39142,19 +39142,19 @@
         <v>-1</v>
       </c>
       <c r="X449">
-        <v>1.875</v>
+        <v>0.222</v>
       </c>
       <c r="Y449">
         <v>-1</v>
       </c>
       <c r="Z449">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA449">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB449">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450" spans="1:28">
@@ -48020,7 +48020,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>6887598</v>
+        <v>6887599</v>
       </c>
       <c r="C553" t="s">
         <v>27</v>
@@ -48029,40 +48029,40 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E553" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F553" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G553">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H553">
         <v>0</v>
       </c>
       <c r="I553" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J553">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K553">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L553">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M553">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N553">
         <v>3.75</v>
       </c>
       <c r="O553">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P553">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q553">
         <v>1.95</v>
@@ -48071,34 +48071,34 @@
         <v>1.85</v>
       </c>
       <c r="S553">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T553">
+        <v>1.85</v>
+      </c>
+      <c r="U553">
         <v>1.95</v>
       </c>
-      <c r="U553">
-        <v>1.85</v>
-      </c>
       <c r="V553">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W553">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X553">
         <v>-1</v>
       </c>
       <c r="Y553">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z553">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA553">
         <v>-1</v>
       </c>
       <c r="AB553">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="554" spans="1:28">
@@ -48106,7 +48106,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>6887599</v>
+        <v>6887598</v>
       </c>
       <c r="C554" t="s">
         <v>27</v>
@@ -48115,40 +48115,40 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E554" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F554" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G554">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H554">
         <v>0</v>
       </c>
       <c r="I554" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J554">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K554">
+        <v>3.75</v>
+      </c>
+      <c r="L554">
         <v>4</v>
       </c>
-      <c r="L554">
-        <v>2.75</v>
-      </c>
       <c r="M554">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N554">
         <v>3.75</v>
       </c>
       <c r="O554">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P554">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q554">
         <v>1.95</v>
@@ -48157,34 +48157,34 @@
         <v>1.85</v>
       </c>
       <c r="S554">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T554">
+        <v>1.95</v>
+      </c>
+      <c r="U554">
         <v>1.85</v>
       </c>
-      <c r="U554">
-        <v>1.95</v>
-      </c>
       <c r="V554">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W554">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X554">
         <v>-1</v>
       </c>
       <c r="Y554">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z554">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA554">
         <v>-1</v>
       </c>
       <c r="AB554">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="555" spans="1:28">

--- a/England National League North/England National League North.xlsx
+++ b/England National League North/England National League North.xlsx
@@ -109,9 +109,6 @@
     <t>Bishops Stortford</t>
   </si>
   <si>
-    <t>Chorley</t>
-  </si>
-  <si>
     <t>Buxton</t>
   </si>
   <si>
@@ -124,10 +121,13 @@
     <t>Blyth Spartans</t>
   </si>
   <si>
+    <t>Chorley</t>
+  </si>
+  <si>
     <t>South Shields</t>
   </si>
   <si>
-    <t>Darlington 1883</t>
+    <t>Rushall Olympic</t>
   </si>
   <si>
     <t>Tamworth</t>
@@ -136,7 +136,7 @@
     <t>Peterborough Sports</t>
   </si>
   <si>
-    <t>Rushall Olympic</t>
+    <t>Darlington 1883</t>
   </si>
   <si>
     <t>Southport</t>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6880554</v>
+        <v>6880553</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -750,7 +750,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -762,67 +762,67 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>55</v>
       </c>
       <c r="L3">
+        <v>2.1</v>
+      </c>
+      <c r="M3">
+        <v>3.6</v>
+      </c>
+      <c r="N3">
+        <v>2.875</v>
+      </c>
+      <c r="O3">
+        <v>2.3</v>
+      </c>
+      <c r="P3">
+        <v>3.5</v>
+      </c>
+      <c r="Q3">
+        <v>2.625</v>
+      </c>
+      <c r="R3">
+        <v>-0.25</v>
+      </c>
+      <c r="S3">
+        <v>1.975</v>
+      </c>
+      <c r="T3">
+        <v>1.725</v>
+      </c>
+      <c r="U3">
         <v>2.5</v>
       </c>
-      <c r="M3">
-        <v>3.3</v>
-      </c>
-      <c r="N3">
+      <c r="V3">
+        <v>1.9</v>
+      </c>
+      <c r="W3">
+        <v>1.9</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>2.5</v>
       </c>
-      <c r="O3">
-        <v>2.25</v>
-      </c>
-      <c r="P3">
-        <v>3.4</v>
-      </c>
-      <c r="Q3">
-        <v>2.8</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>1.725</v>
-      </c>
-      <c r="T3">
-        <v>1.975</v>
-      </c>
-      <c r="U3">
-        <v>2.25</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
-      <c r="W3">
-        <v>1.925</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>2.4</v>
-      </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6880553</v>
+        <v>6880552</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -842,13 +842,13 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -857,34 +857,34 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L4">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="R4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U4">
         <v>2.5</v>
@@ -899,22 +899,22 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880552</v>
+        <v>6880257</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -934,76 +934,76 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <v>2.1</v>
+      </c>
+      <c r="M5">
+        <v>3.4</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5">
-        <v>2.75</v>
-      </c>
-      <c r="M5">
-        <v>3.3</v>
-      </c>
-      <c r="N5">
-        <v>2.3</v>
-      </c>
       <c r="O5">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U5">
         <v>2.5</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z5">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD5">
         <v>-1</v>
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6880257</v>
+        <v>6880256</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1026,43 +1026,43 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="R6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>1.875</v>
@@ -1074,28 +1074,28 @@
         <v>2.5</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD6">
         <v>-1</v>
@@ -1106,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6880256</v>
+        <v>6880554</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1118,79 +1118,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7">
         <v>2.5</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
+        <v>2.5</v>
+      </c>
+      <c r="O7">
+        <v>2.25</v>
+      </c>
+      <c r="P7">
+        <v>3.4</v>
+      </c>
+      <c r="Q7">
+        <v>2.8</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.725</v>
+      </c>
+      <c r="T7">
+        <v>1.975</v>
+      </c>
+      <c r="U7">
+        <v>2.25</v>
+      </c>
+      <c r="V7">
+        <v>1.875</v>
+      </c>
+      <c r="W7">
+        <v>1.925</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
         <v>2.4</v>
       </c>
-      <c r="O7">
-        <v>2.375</v>
-      </c>
-      <c r="P7">
-        <v>3.5</v>
-      </c>
-      <c r="Q7">
-        <v>2.55</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>1.925</v>
-      </c>
-      <c r="U7">
-        <v>2.5</v>
-      </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>1.375</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1290,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6880705</v>
+        <v>6880706</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1302,79 +1302,79 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="O9">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="P9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="R9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U9">
         <v>2.5</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
+        <v>1.9</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
         <v>1.875</v>
       </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>2.6</v>
-      </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1566,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6880706</v>
+        <v>6880705</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1578,58 +1578,58 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
       </c>
       <c r="L12">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="O12">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="R12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U12">
         <v>2.5</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1638,19 +1638,19 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.875</v>
+        <v>2.6</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1762,7 +1762,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1854,7 +1854,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2130,7 +2130,7 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2590,7 +2590,7 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2866,7 +2866,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2958,7 +2958,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3326,7 +3326,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>48</v>
@@ -4151,7 +4151,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
         <v>46</v>
@@ -4243,7 +4243,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -4335,7 +4335,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
@@ -4611,7 +4611,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
         <v>49</v>
@@ -4703,7 +4703,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
         <v>51</v>
@@ -4795,7 +4795,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -5154,7 +5154,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880181</v>
+        <v>6880185</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5163,16 +5163,16 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5181,64 +5181,64 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L51">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M51">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O51">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P51">
         <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R51">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U51">
         <v>2.5</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y51">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
         <v>-1</v>
       </c>
       <c r="AD51">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5255,10 +5255,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -5347,10 +5347,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5430,7 +5430,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6880185</v>
+        <v>6880181</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5439,16 +5439,16 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5457,64 +5457,64 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L54">
+        <v>2.15</v>
+      </c>
+      <c r="M54">
+        <v>3.3</v>
+      </c>
+      <c r="N54">
+        <v>2.9</v>
+      </c>
+      <c r="O54">
         <v>2.1</v>
-      </c>
-      <c r="M54">
-        <v>3.4</v>
-      </c>
-      <c r="N54">
-        <v>2.875</v>
-      </c>
-      <c r="O54">
-        <v>2.3</v>
       </c>
       <c r="P54">
         <v>3.3</v>
       </c>
       <c r="Q54">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
         <v>2.5</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X54">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC54">
         <v>-1</v>
       </c>
       <c r="AD54">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5522,7 +5522,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6879635</v>
+        <v>6880719</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5531,82 +5531,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L55">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q55">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="R55">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S55">
+        <v>1.875</v>
+      </c>
+      <c r="T55">
+        <v>1.925</v>
+      </c>
+      <c r="U55">
+        <v>2.25</v>
+      </c>
+      <c r="V55">
         <v>1.8</v>
       </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
+      <c r="W55">
+        <v>2</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
         <v>2.5</v>
       </c>
-      <c r="V55">
-        <v>1.975</v>
-      </c>
-      <c r="W55">
-        <v>1.825</v>
-      </c>
-      <c r="X55">
-        <v>3.2</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
         <v>-1</v>
       </c>
       <c r="AD55">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5614,7 +5614,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6880719</v>
+        <v>6880716</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5623,82 +5623,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L56">
         <v>2</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
         <v>3.1</v>
       </c>
       <c r="O56">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="P56">
         <v>3.5</v>
       </c>
       <c r="Q56">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
       </c>
       <c r="AD56">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5706,7 +5706,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6880716</v>
+        <v>6880715</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5715,82 +5715,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
+        <v>3.8</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>3.3</v>
+      </c>
+      <c r="Q57">
         <v>3.1</v>
-      </c>
-      <c r="O57">
-        <v>2.2</v>
-      </c>
-      <c r="P57">
-        <v>3.5</v>
-      </c>
-      <c r="Q57">
-        <v>2.75</v>
       </c>
       <c r="R57">
         <v>-0.25</v>
       </c>
       <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
         <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>1.825</v>
       </c>
       <c r="U57">
         <v>2.5</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X57">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5798,7 +5798,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6880715</v>
+        <v>6880717</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5807,82 +5807,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L58">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="M58">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N58">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P58">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="R58">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z58">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5890,7 +5890,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6880717</v>
+        <v>6880718</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5899,55 +5899,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="s">
         <v>55</v>
       </c>
       <c r="L59">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N59">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q59">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="R59">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U59">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V59">
         <v>1.9</v>
@@ -5959,22 +5959,22 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB59">
+        <v>-0.5</v>
+      </c>
+      <c r="AC59">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AC59">
-        <v>-1</v>
-      </c>
       <c r="AD59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -5982,7 +5982,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6880718</v>
+        <v>6880572</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -5991,46 +5991,46 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L60">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N60">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O60">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="P60">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q60">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="R60">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S60">
         <v>1.875</v>
@@ -6039,7 +6039,7 @@
         <v>1.925</v>
       </c>
       <c r="U60">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V60">
         <v>1.9</v>
@@ -6048,25 +6048,25 @@
         <v>1.9</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y60">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
+        <v>0.45</v>
+      </c>
+      <c r="AD60">
         <v>-0.5</v>
-      </c>
-      <c r="AC60">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6074,7 +6074,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6880572</v>
+        <v>6879635</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -6083,13 +6083,13 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6104,43 +6104,43 @@
         <v>54</v>
       </c>
       <c r="L61">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="M61">
+        <v>3.25</v>
+      </c>
+      <c r="N61">
+        <v>2.2</v>
+      </c>
+      <c r="O61">
+        <v>4.2</v>
+      </c>
+      <c r="P61">
         <v>3.4</v>
       </c>
-      <c r="N61">
-        <v>2.9</v>
-      </c>
-      <c r="O61">
-        <v>1.666</v>
-      </c>
-      <c r="P61">
-        <v>3.75</v>
-      </c>
       <c r="Q61">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="R61">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X61">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="Y61">
         <v>-1</v>
@@ -6149,16 +6149,16 @@
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD61">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6270,7 +6270,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6451,7 +6451,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
         <v>45</v>
@@ -6819,7 +6819,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -6911,7 +6911,7 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
         <v>52</v>
@@ -7095,10 +7095,10 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -7555,7 +7555,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -7650,7 +7650,7 @@
         <v>53</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7739,7 +7739,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
@@ -8018,7 +8018,7 @@
         <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -8107,10 +8107,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -8202,7 +8202,7 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>45174.65625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
         <v>43</v>
@@ -8478,7 +8478,7 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8843,7 +8843,7 @@
         <v>45174.65625</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -8938,7 +8938,7 @@
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>45174.65625</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
         <v>45</v>
@@ -9395,7 +9395,7 @@
         <v>45174.65625</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
         <v>53</v>
@@ -9674,7 +9674,7 @@
         <v>48</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -10042,7 +10042,7 @@
         <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10134,7 +10134,7 @@
         <v>46</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -10315,7 +10315,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
         <v>41</v>
@@ -10407,7 +10407,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>47</v>
@@ -10499,7 +10499,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
         <v>50</v>
@@ -10683,7 +10683,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
         <v>52</v>
@@ -10778,7 +10778,7 @@
         <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -11051,7 +11051,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
         <v>44</v>
@@ -11143,7 +11143,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
         <v>45</v>
@@ -11327,7 +11327,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
         <v>49</v>
@@ -11422,7 +11422,7 @@
         <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11606,7 +11606,7 @@
         <v>50</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11971,10 +11971,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -12155,10 +12155,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12434,7 +12434,7 @@
         <v>52</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -12710,7 +12710,7 @@
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -12799,7 +12799,7 @@
         <v>45213.375</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
         <v>30</v>
@@ -12894,7 +12894,7 @@
         <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -13259,10 +13259,10 @@
         <v>45213.45833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -13627,7 +13627,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
         <v>38</v>
@@ -13814,7 +13814,7 @@
         <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13903,10 +13903,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>5</v>
@@ -14182,7 +14182,7 @@
         <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -14639,10 +14639,10 @@
         <v>45223.65625</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -14731,7 +14731,7 @@
         <v>45223.65625</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
         <v>36</v>
@@ -14823,7 +14823,7 @@
         <v>45223.65625</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
         <v>39</v>
@@ -14918,7 +14918,7 @@
         <v>53</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -15099,7 +15099,7 @@
         <v>45223.65625</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
         <v>30</v>
@@ -15194,7 +15194,7 @@
         <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -15467,7 +15467,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
         <v>52</v>
@@ -15559,10 +15559,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E164" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" t="s">
         <v>34</v>
-      </c>
-      <c r="F164" t="s">
-        <v>35</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15743,10 +15743,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -15835,7 +15835,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
         <v>51</v>
@@ -15930,7 +15930,7 @@
         <v>41</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -16571,7 +16571,7 @@
         <v>45230.69791666666</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
         <v>38</v>
@@ -16666,7 +16666,7 @@
         <v>30</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -16847,7 +16847,7 @@
         <v>45234.5</v>
       </c>
       <c r="E178" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
         <v>41</v>
@@ -16942,7 +16942,7 @@
         <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -17126,7 +17126,7 @@
         <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -17770,7 +17770,7 @@
         <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17862,7 +17862,7 @@
         <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -17951,10 +17951,10 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E190" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -18043,7 +18043,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
         <v>41</v>
@@ -18135,7 +18135,7 @@
         <v>45237.69791666666</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F192" t="s">
         <v>50</v>
@@ -18411,7 +18411,7 @@
         <v>45241.5</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F195" t="s">
         <v>43</v>
@@ -18503,7 +18503,7 @@
         <v>45241.5</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
         <v>39</v>
@@ -18782,7 +18782,7 @@
         <v>42</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -18871,7 +18871,7 @@
         <v>45241.5</v>
       </c>
       <c r="E200" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
         <v>48</v>
@@ -18966,7 +18966,7 @@
         <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -19147,7 +19147,7 @@
         <v>45241.5</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F203" t="s">
         <v>52</v>
@@ -19242,7 +19242,7 @@
         <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -19423,10 +19423,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G206">
         <v>8</v>
@@ -19518,7 +19518,7 @@
         <v>51</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -19610,7 +19610,7 @@
         <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -19699,7 +19699,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="E209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F209" t="s">
         <v>50</v>
@@ -19883,7 +19883,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F211" t="s">
         <v>45</v>
@@ -20435,7 +20435,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
         <v>47</v>
@@ -20530,7 +20530,7 @@
         <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -20619,7 +20619,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F219" t="s">
         <v>30</v>
@@ -20711,10 +20711,10 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E220" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220" t="s">
         <v>35</v>
-      </c>
-      <c r="F220" t="s">
-        <v>31</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -20803,7 +20803,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F221" t="s">
         <v>51</v>
@@ -21174,7 +21174,7 @@
         <v>53</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -21266,7 +21266,7 @@
         <v>53</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -21355,7 +21355,7 @@
         <v>45255.5</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F227" t="s">
         <v>46</v>
@@ -21631,7 +21631,7 @@
         <v>45255.5</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
         <v>41</v>
@@ -21818,7 +21818,7 @@
         <v>38</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -22183,7 +22183,7 @@
         <v>45255.5</v>
       </c>
       <c r="E236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
         <v>39</v>
@@ -22275,10 +22275,10 @@
         <v>45255.5</v>
       </c>
       <c r="E237" t="s">
+        <v>40</v>
+      </c>
+      <c r="F237" t="s">
         <v>37</v>
-      </c>
-      <c r="F237" t="s">
-        <v>40</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -22459,7 +22459,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E239" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F239" t="s">
         <v>48</v>
@@ -22551,10 +22551,10 @@
         <v>45262.5</v>
       </c>
       <c r="E240" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -23195,10 +23195,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E247" t="s">
+        <v>35</v>
+      </c>
+      <c r="F247" t="s">
         <v>31</v>
-      </c>
-      <c r="F247" t="s">
-        <v>32</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -23287,10 +23287,10 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -23566,7 +23566,7 @@
         <v>52</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -23750,7 +23750,7 @@
         <v>45</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G253">
         <v>3</v>
@@ -24026,7 +24026,7 @@
         <v>44</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G256">
         <v>3</v>
@@ -24115,7 +24115,7 @@
         <v>45276.5</v>
       </c>
       <c r="E257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F257" t="s">
         <v>47</v>
@@ -24207,7 +24207,7 @@
         <v>45276.5</v>
       </c>
       <c r="E258" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F258" t="s">
         <v>43</v>
@@ -24394,7 +24394,7 @@
         <v>49</v>
       </c>
       <c r="F260" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>50</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G262">
         <v>3</v>
@@ -24759,10 +24759,10 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E264" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F264" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -25035,7 +25035,7 @@
         <v>45283.5</v>
       </c>
       <c r="E267" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F267" t="s">
         <v>46</v>
@@ -25127,7 +25127,7 @@
         <v>45283.5</v>
       </c>
       <c r="E268" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F268" t="s">
         <v>50</v>
@@ -25311,7 +25311,7 @@
         <v>45283.5</v>
       </c>
       <c r="E270" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F270" t="s">
         <v>36</v>
@@ -25406,7 +25406,7 @@
         <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -25498,7 +25498,7 @@
         <v>47</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -25587,7 +25587,7 @@
         <v>45283.5</v>
       </c>
       <c r="E273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F273" t="s">
         <v>48</v>
@@ -25863,7 +25863,7 @@
         <v>45283.5</v>
       </c>
       <c r="E276" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F276" t="s">
         <v>30</v>
@@ -25958,7 +25958,7 @@
         <v>44</v>
       </c>
       <c r="F277" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -26139,7 +26139,7 @@
         <v>45286.41666666666</v>
       </c>
       <c r="E279" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F279" t="s">
         <v>42</v>
@@ -26418,7 +26418,7 @@
         <v>38</v>
       </c>
       <c r="F282" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G282">
         <v>2</v>
@@ -26507,7 +26507,7 @@
         <v>45286.5</v>
       </c>
       <c r="E283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F283" t="s">
         <v>53</v>
@@ -26602,7 +26602,7 @@
         <v>36</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -26786,7 +26786,7 @@
         <v>45</v>
       </c>
       <c r="F286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -26878,7 +26878,7 @@
         <v>52</v>
       </c>
       <c r="F287" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -27059,7 +27059,7 @@
         <v>45290.5</v>
       </c>
       <c r="E289" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F289" t="s">
         <v>38</v>
@@ -27243,7 +27243,7 @@
         <v>45290.5</v>
       </c>
       <c r="E291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F291" t="s">
         <v>36</v>
@@ -27335,7 +27335,7 @@
         <v>45290.5</v>
       </c>
       <c r="E292" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F292" t="s">
         <v>52</v>
@@ -27513,7 +27513,7 @@
         <v>45290.5</v>
       </c>
       <c r="E294" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F294" t="s">
         <v>44</v>
@@ -27608,7 +27608,7 @@
         <v>42</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G295">
         <v>3</v>
@@ -27792,7 +27792,7 @@
         <v>53</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G297">
         <v>2</v>
@@ -27881,7 +27881,7 @@
         <v>45292.5</v>
       </c>
       <c r="E298" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F298" t="s">
         <v>45</v>
@@ -28160,7 +28160,7 @@
         <v>30</v>
       </c>
       <c r="F301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -28252,7 +28252,7 @@
         <v>38</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -28528,7 +28528,7 @@
         <v>48</v>
       </c>
       <c r="F305" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -28709,10 +28709,10 @@
         <v>45297.5</v>
       </c>
       <c r="E307" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F307" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>45</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G311">
         <v>2</v>
@@ -29264,7 +29264,7 @@
         <v>41</v>
       </c>
       <c r="F313" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G313">
         <v>2</v>
@@ -29537,7 +29537,7 @@
         <v>45304.5</v>
       </c>
       <c r="E316" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F316" t="s">
         <v>52</v>
@@ -29813,7 +29813,7 @@
         <v>45304.5</v>
       </c>
       <c r="E319" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F319" t="s">
         <v>38</v>
@@ -29997,10 +29997,10 @@
         <v>45304.5</v>
       </c>
       <c r="E321" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F321" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G321">
         <v>2</v>
@@ -30089,10 +30089,10 @@
         <v>45304.5</v>
       </c>
       <c r="E322" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F322" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -30368,7 +30368,7 @@
         <v>48</v>
       </c>
       <c r="F325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>51</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G328">
         <v>2</v>
@@ -30736,7 +30736,7 @@
         <v>49</v>
       </c>
       <c r="F329" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -30917,7 +30917,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E331" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F331" t="s">
         <v>49</v>
@@ -31009,7 +31009,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E332" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F332" t="s">
         <v>47</v>
@@ -31101,7 +31101,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E333" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F333" t="s">
         <v>44</v>
@@ -31193,7 +31193,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E334" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F334" t="s">
         <v>51</v>
@@ -31561,7 +31561,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E338" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F338" t="s">
         <v>48</v>
@@ -31745,7 +31745,7 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E340" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F340" t="s">
         <v>46</v>
@@ -31837,7 +31837,7 @@
         <v>45318.5</v>
       </c>
       <c r="E341" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F341" t="s">
         <v>43</v>
@@ -32113,7 +32113,7 @@
         <v>45318.5</v>
       </c>
       <c r="E344" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F344" t="s">
         <v>46</v>
@@ -32205,7 +32205,7 @@
         <v>45318.5</v>
       </c>
       <c r="E345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F345" t="s">
         <v>44</v>
@@ -32297,7 +32297,7 @@
         <v>45318.5</v>
       </c>
       <c r="E346" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F346" t="s">
         <v>48</v>
@@ -32481,7 +32481,7 @@
         <v>45318.5</v>
       </c>
       <c r="E348" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F348" t="s">
         <v>42</v>
@@ -32757,7 +32757,7 @@
         <v>45318.5</v>
       </c>
       <c r="E351" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F351" t="s">
         <v>51</v>
@@ -32849,7 +32849,7 @@
         <v>45318.5</v>
       </c>
       <c r="E352" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F352" t="s">
         <v>47</v>
@@ -32941,10 +32941,10 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E353" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F353" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G353">
         <v>2</v>
@@ -33125,7 +33125,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E355" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F355" t="s">
         <v>45</v>
@@ -33588,7 +33588,7 @@
         <v>47</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G360">
         <v>2</v>
@@ -33680,7 +33680,7 @@
         <v>42</v>
       </c>
       <c r="F361" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G361">
         <v>1</v>
@@ -33772,7 +33772,7 @@
         <v>51</v>
       </c>
       <c r="F362" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G362">
         <v>5</v>
@@ -33864,7 +33864,7 @@
         <v>48</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G363">
         <v>1</v>
@@ -33956,7 +33956,7 @@
         <v>50</v>
       </c>
       <c r="F364" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G364">
         <v>2</v>
@@ -34140,7 +34140,7 @@
         <v>46</v>
       </c>
       <c r="F366" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -34232,7 +34232,7 @@
         <v>49</v>
       </c>
       <c r="F367" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G367">
         <v>1</v>
@@ -34597,7 +34597,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E371" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F371" t="s">
         <v>50</v>
@@ -34781,7 +34781,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E373" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F373" t="s">
         <v>49</v>
@@ -34873,7 +34873,7 @@
         <v>45332.5</v>
       </c>
       <c r="E374" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F374" t="s">
         <v>45</v>
@@ -35517,7 +35517,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E381" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F381" t="s">
         <v>52</v>
@@ -36072,7 +36072,7 @@
         <v>36</v>
       </c>
       <c r="F387" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -36161,7 +36161,7 @@
         <v>45339.5</v>
       </c>
       <c r="E388" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F388" t="s">
         <v>41</v>
@@ -36348,7 +36348,7 @@
         <v>52</v>
       </c>
       <c r="F390" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G390">
         <v>2</v>
@@ -36437,7 +36437,7 @@
         <v>45339.5</v>
       </c>
       <c r="E391" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F391" t="s">
         <v>49</v>
@@ -36621,10 +36621,10 @@
         <v>45339.5</v>
       </c>
       <c r="E393" t="s">
+        <v>31</v>
+      </c>
+      <c r="F393" t="s">
         <v>32</v>
-      </c>
-      <c r="F393" t="s">
-        <v>33</v>
       </c>
       <c r="G393">
         <v>3</v>
@@ -36716,7 +36716,7 @@
         <v>42</v>
       </c>
       <c r="F394" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G394">
         <v>1</v>
@@ -36805,7 +36805,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E395" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F395" t="s">
         <v>38</v>
@@ -36900,7 +36900,7 @@
         <v>45</v>
       </c>
       <c r="F396" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G396">
         <v>2</v>
@@ -37081,7 +37081,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E398" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F398" t="s">
         <v>49</v>
@@ -37544,7 +37544,7 @@
         <v>53</v>
       </c>
       <c r="F403" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G403">
         <v>2</v>
@@ -37636,7 +37636,7 @@
         <v>43</v>
       </c>
       <c r="F404" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G404">
         <v>1</v>
@@ -37817,7 +37817,7 @@
         <v>45346.5</v>
       </c>
       <c r="E406" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F406" t="s">
         <v>43</v>
@@ -37912,7 +37912,7 @@
         <v>39</v>
       </c>
       <c r="F407" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G407">
         <v>4</v>
@@ -38093,7 +38093,7 @@
         <v>45346.5</v>
       </c>
       <c r="E409" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F409" t="s">
         <v>53</v>
@@ -38277,10 +38277,10 @@
         <v>45346.5</v>
       </c>
       <c r="E411" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F411" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G411">
         <v>2</v>
@@ -38648,7 +38648,7 @@
         <v>53</v>
       </c>
       <c r="F415" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G415">
         <v>2</v>
@@ -38740,7 +38740,7 @@
         <v>46</v>
       </c>
       <c r="F416" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G416">
         <v>1</v>
@@ -38832,7 +38832,7 @@
         <v>42</v>
       </c>
       <c r="F417" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G417">
         <v>1</v>
@@ -38924,7 +38924,7 @@
         <v>43</v>
       </c>
       <c r="F418" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G418">
         <v>1</v>
@@ -39016,7 +39016,7 @@
         <v>45</v>
       </c>
       <c r="F419" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G419">
         <v>1</v>
@@ -39105,7 +39105,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E420" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F420" t="s">
         <v>39</v>
@@ -39289,7 +39289,7 @@
         <v>45353.5</v>
       </c>
       <c r="E422" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F422" t="s">
         <v>44</v>
@@ -39381,10 +39381,10 @@
         <v>45353.5</v>
       </c>
       <c r="E423" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F423" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G423">
         <v>2</v>
@@ -39565,7 +39565,7 @@
         <v>45353.5</v>
       </c>
       <c r="E425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F425" t="s">
         <v>36</v>
@@ -39749,10 +39749,10 @@
         <v>45353.5</v>
       </c>
       <c r="E427" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F427" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G427">
         <v>3</v>
@@ -40120,7 +40120,7 @@
         <v>38</v>
       </c>
       <c r="F431" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G431">
         <v>3</v>
@@ -40485,7 +40485,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E435" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F435" t="s">
         <v>50</v>
@@ -40672,7 +40672,7 @@
         <v>30</v>
       </c>
       <c r="F437" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -40761,10 +40761,10 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E438" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F438" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G438">
         <v>1</v>
@@ -40856,7 +40856,7 @@
         <v>52</v>
       </c>
       <c r="F439" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G439">
         <v>2</v>
@@ -41129,7 +41129,7 @@
         <v>45360.5</v>
       </c>
       <c r="E442" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F442" t="s">
         <v>41</v>
@@ -41221,10 +41221,10 @@
         <v>45360.5</v>
       </c>
       <c r="E443" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F443" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -41316,7 +41316,7 @@
         <v>51</v>
       </c>
       <c r="F444" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G444">
         <v>0</v>
@@ -41681,10 +41681,10 @@
         <v>45360.5</v>
       </c>
       <c r="E448" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F448" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G448">
         <v>0</v>
@@ -41957,7 +41957,7 @@
         <v>45363.69791666666</v>
       </c>
       <c r="E451" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F451" t="s">
         <v>42</v>
@@ -42052,7 +42052,7 @@
         <v>36</v>
       </c>
       <c r="F452" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G452">
         <v>2</v>
@@ -42144,7 +42144,7 @@
         <v>39</v>
       </c>
       <c r="F453" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G453">
         <v>1</v>
@@ -42601,10 +42601,10 @@
         <v>45363.69791666666</v>
       </c>
       <c r="E458" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F458" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G458">
         <v>1</v>
@@ -42693,10 +42693,10 @@
         <v>45367.5</v>
       </c>
       <c r="E459" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F459" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G459">
         <v>2</v>
@@ -42788,7 +42788,7 @@
         <v>50</v>
       </c>
       <c r="F460" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G460">
         <v>2</v>
@@ -42880,7 +42880,7 @@
         <v>41</v>
       </c>
       <c r="F461" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G461">
         <v>2</v>
@@ -43061,7 +43061,7 @@
         <v>45367.5</v>
       </c>
       <c r="E463" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F463" t="s">
         <v>39</v>
@@ -43153,7 +43153,7 @@
         <v>45367.5</v>
       </c>
       <c r="E464" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F464" t="s">
         <v>44</v>
@@ -43705,7 +43705,7 @@
         <v>45367.5</v>
       </c>
       <c r="E470" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F470" t="s">
         <v>36</v>
@@ -43800,7 +43800,7 @@
         <v>30</v>
       </c>
       <c r="F471" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G471">
         <v>0</v>
@@ -43889,10 +43889,10 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E472" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F472" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G472">
         <v>3</v>
@@ -43981,7 +43981,7 @@
         <v>45374.39583333334</v>
       </c>
       <c r="E473" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F473" t="s">
         <v>38</v>
@@ -44444,7 +44444,7 @@
         <v>46</v>
       </c>
       <c r="F478" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G478">
         <v>4</v>
@@ -44533,7 +44533,7 @@
         <v>45374.5</v>
       </c>
       <c r="E479" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F479" t="s">
         <v>53</v>
@@ -44809,10 +44809,10 @@
         <v>45374.5</v>
       </c>
       <c r="E482" t="s">
+        <v>37</v>
+      </c>
+      <c r="F482" t="s">
         <v>40</v>
-      </c>
-      <c r="F482" t="s">
-        <v>37</v>
       </c>
       <c r="G482">
         <v>3</v>
@@ -44904,7 +44904,7 @@
         <v>41</v>
       </c>
       <c r="F483" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G483">
         <v>2</v>
@@ -44996,7 +44996,7 @@
         <v>39</v>
       </c>
       <c r="F484" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G484">
         <v>2</v>
@@ -45269,7 +45269,7 @@
         <v>45377.69791666666</v>
       </c>
       <c r="E487" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F487" t="s">
         <v>36</v>
@@ -45548,7 +45548,7 @@
         <v>50</v>
       </c>
       <c r="F490" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G490">
         <v>0</v>
@@ -45821,7 +45821,7 @@
         <v>45380.5</v>
       </c>
       <c r="E493" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F493" t="s">
         <v>48</v>
@@ -45916,7 +45916,7 @@
         <v>45</v>
       </c>
       <c r="F494" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G494">
         <v>1</v>
@@ -46189,10 +46189,10 @@
         <v>45380.5</v>
       </c>
       <c r="E497" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F497" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G497">
         <v>0</v>
@@ -46281,7 +46281,7 @@
         <v>45380.5</v>
       </c>
       <c r="E498" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F498" t="s">
         <v>46</v>
@@ -46557,7 +46557,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E501" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F501" t="s">
         <v>53</v>
@@ -46744,7 +46744,7 @@
         <v>47</v>
       </c>
       <c r="F503" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G503">
         <v>1</v>
@@ -46836,7 +46836,7 @@
         <v>51</v>
       </c>
       <c r="F504" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G504">
         <v>2</v>
@@ -47112,7 +47112,7 @@
         <v>30</v>
       </c>
       <c r="F507" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G507">
         <v>3</v>
@@ -47293,7 +47293,7 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E509" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F509" t="s">
         <v>44</v>
@@ -47385,10 +47385,10 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E510" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F510" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G510">
         <v>2</v>
@@ -47569,7 +47569,7 @@
         <v>45385.65625</v>
       </c>
       <c r="E512" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F512" t="s">
         <v>51</v>
@@ -47845,10 +47845,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E515" t="s">
+        <v>32</v>
+      </c>
+      <c r="F515" t="s">
         <v>33</v>
-      </c>
-      <c r="F515" t="s">
-        <v>34</v>
       </c>
       <c r="G515">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E519" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F519" t="s">
         <v>41</v>
@@ -48581,10 +48581,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E523" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F523" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G523">
         <v>3</v>
@@ -48673,10 +48673,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E524" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F524" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G524">
         <v>1</v>
@@ -48857,7 +48857,7 @@
         <v>45391.65625</v>
       </c>
       <c r="E526" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F526" t="s">
         <v>30</v>
@@ -49041,10 +49041,10 @@
         <v>45391.65625</v>
       </c>
       <c r="E528" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F528" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G528">
         <v>1</v>
@@ -49136,7 +49136,7 @@
         <v>52</v>
       </c>
       <c r="F529" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G529">
         <v>5</v>
@@ -49225,7 +49225,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E530" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F530" t="s">
         <v>30</v>
@@ -49409,7 +49409,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E532" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F532" t="s">
         <v>43</v>
@@ -49501,7 +49501,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E533" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F533" t="s">
         <v>39</v>
@@ -49596,7 +49596,7 @@
         <v>50</v>
       </c>
       <c r="F534" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G534">
         <v>5</v>
@@ -49964,7 +49964,7 @@
         <v>41</v>
       </c>
       <c r="F538" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G538">
         <v>3</v>
@@ -50053,10 +50053,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E539" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F539" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G539">
         <v>3</v>
@@ -50329,7 +50329,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E542" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F542" t="s">
         <v>53</v>
@@ -50421,7 +50421,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E543" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F543" t="s">
         <v>47</v>
@@ -50608,7 +50608,7 @@
         <v>39</v>
       </c>
       <c r="F545" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G545">
         <v>1</v>
@@ -50881,7 +50881,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E548" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -51068,7 +51068,7 @@
         <v>52</v>
       </c>
       <c r="F550" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G550">
         <v>3</v>
@@ -51252,7 +51252,7 @@
         <v>43</v>
       </c>
       <c r="F552" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G552">
         <v>2</v>
@@ -51344,7 +51344,7 @@
         <v>48</v>
       </c>
       <c r="F553" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -51433,7 +51433,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E554" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F554" t="s">
         <v>42</v>
@@ -51617,7 +51617,7 @@
         <v>45406.65625</v>
       </c>
       <c r="E556" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F556" t="s">
         <v>46</v>
@@ -51804,7 +51804,7 @@
         <v>42</v>
       </c>
       <c r="F558" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G558">
         <v>1</v>
